--- a/model/stats/stats.xlsx
+++ b/model/stats/stats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcruvolo/Github/projects-solve-rd/model/stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACF2C3B-F5D8-0444-823C-BE189F366095}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC6B1F9-4A6C-1C48-A9FE-7A37B15452D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25840" yWindow="-1500" windowWidth="21940" windowHeight="13900" activeTab="2" xr2:uid="{D9808744-DE01-C347-87A2-06B8457ED4F1}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17500" activeTab="2" xr2:uid="{D9808744-DE01-C347-87A2-06B8457ED4F1}"/>
   </bookViews>
   <sheets>
     <sheet name="packages" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="58">
   <si>
     <t>name</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>rd3stats_coverage</t>
+  </si>
+  <si>
+    <t>text</t>
   </si>
 </sst>
 </file>
@@ -670,10 +673,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{560A9CEE-01E4-154E-96C2-BDCFF1EA39CF}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -723,10 +726,10 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -736,6 +739,15 @@
       </c>
       <c r="F2" t="b">
         <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -743,22 +755,19 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
       <c r="H3" t="b">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -766,36 +775,33 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
       </c>
-      <c r="I5" t="s">
-        <v>29</v>
+      <c r="E5" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -803,16 +809,13 @@
         <v>56</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" t="b">
-        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
@@ -820,10 +823,10 @@
         <v>56</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>19</v>
@@ -834,13 +837,13 @@
         <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -848,10 +851,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>53</v>
@@ -862,26 +865,12 @@
         <v>56</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" t="s">
         <v>52</v>
       </c>
     </row>
